--- a/pca_chart.xlsx
+++ b/pca_chart.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a087f1af566bbf7/PostProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{D94E247A-98BD-3642-842D-EFCFEC6B514C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9379965D-8CAF-354D-B3CA-FCC2427E2F3F}"/>
+  <xr:revisionPtr revIDLastSave="135" documentId="8_{D94E247A-98BD-3642-842D-EFCFEC6B514C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{644CD5EC-DD32-8249-88E2-CDDDD62368DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{8483D6F3-E9EC-A74C-B5E6-1C4FFF209F38}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{8483D6F3-E9EC-A74C-B5E6-1C4FFF209F38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1:$M$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$7:$M$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>a</t>
   </si>
@@ -225,6 +222,30 @@
       <t>NΦ</t>
     </r>
   </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>last8PC</t>
+  </si>
 </sst>
 </file>
 
@@ -258,12 +279,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -278,10 +305,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3021,6 +3051,1064 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3A44-BC47-BFB1-17F0EDF2BB9B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-BFF0-D545-9487-0AD8F69BC8BF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fβɑ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNβ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kΦβ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>λN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>μα</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>μβ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>μN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>μΦ</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sαΦ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sβN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>vNΦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.99969253031999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21417971661399998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4234627231799999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85579992862999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9626824119999996E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.4234282812000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0522263204769999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98236967964879984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99150082620000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5341405204699995E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0306920553999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91938743310000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A44-BC47-BFB1-17F0EDF2BB9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>last8PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="6"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-43C0-A74F-AAB5-E131C8E0D7C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-99C2-0242-8FC1-8688A7843BD4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fβɑ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNβ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kΦβ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>λN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>μα</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>μβ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>μN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>μΦ</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sαΦ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sβN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>vNΦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.9999869816441096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94758434606545205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9946043992073248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99994903886393782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.189281255542486E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5308603413273564E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39756080050487541</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9999679230940911</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99999189328517912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3159493342495673E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59751290742169416</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99996207497396239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99C2-0242-8FC1-8688A7843BD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PC5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3181,9 +4269,505 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fβɑ</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kNβ</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>kΦβ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>λN</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>μα</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>μβ</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>μN</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>μΦ</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>sαΦ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>sβN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>vNΦ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.2466211056386404E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31096602018769198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6089201969455006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7016805331360602E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8693733228398706E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0932924836339802E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21730747480447701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1830214733801401E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8585594507408302E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9793293201406699E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34976613554920699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2555676467210201E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1B3F-5E47-8A2E-D4A05CB6117B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>last8PC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="6"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3A44-BC47-BFB1-17F0EDF2BB9B}"/>
+                <c16:uniqueId val="{00000001-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1514-8B4C-85A4-60330897140D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3203,8 +4787,34 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1514-8B4C-85A4-60330897140D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9366374427750335E-2"/>
+                  <c:y val="2.1673555093424555E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-1514-8B4C-85A4-60330897140D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3213,7 +4823,9 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3224,9 +4836,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-CN"/>
@@ -3259,7 +4871,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$M$1</c:f>
+              <c:f>Sheet2!$B$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3303,52 +4915,52 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$M$7</c:f>
+              <c:f>Sheet2!$B$14:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.99969253031999994</c:v>
+                  <c:v>0.9999869816441096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21417971661399998</c:v>
+                  <c:v>0.94758434606545205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4234627231799999E-2</c:v>
+                  <c:v>0.9946043992073248</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85579992862999987</c:v>
+                  <c:v>0.99994903886393782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9626824119999996E-5</c:v>
+                  <c:v>4.189281255542486E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.4234282812000003E-4</c:v>
+                  <c:v>5.5308603413273564E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0522263204769999E-3</c:v>
+                  <c:v>0.39756080050487541</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.98236967964879984</c:v>
+                  <c:v>0.9999679230940911</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99150082620000002</c:v>
+                  <c:v>0.99999189328517912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5341405204699995E-3</c:v>
+                  <c:v>5.3159493342495673E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0306920553999999E-2</c:v>
+                  <c:v>0.59751290742169416</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91938743310000004</c:v>
+                  <c:v>0.99996207497396239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A44-BC47-BFB1-17F0EDF2BB9B}"/>
+              <c16:uniqueId val="{00000018-1514-8B4C-85A4-60330897140D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3402,10 +5014,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-CN"/>
     </a:p>
@@ -3658,6 +5267,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -6254,6 +7983,1563 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6993,6 +10279,126 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349811</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>437931</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E4B701-91A3-334F-A5FB-4D4B34CB40C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604345</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>249621</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118022</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E57082D-5C56-3546-AC07-F0C774930E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21B76B0D-E8C3-5945-9248-977CCADADD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7288,12 +10694,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F72488-7F1B-E444-8BFD-ECE9BBC00FF2}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView topLeftCell="A6" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7665,4 +11357,660 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D844F62D-FC9C-1B40-8078-EA9FE528AEAE}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="A6:XFD6 A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5.6888975427391602E-7</v>
+      </c>
+      <c r="C2" s="5">
+        <v>4.6739619970803201E-3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>5.6403631421805999E-7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6.73379717982269E-8</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4.6413317793065501E-3</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.98092429989349905</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5.1901426049207697E-3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.3856542986225702E-7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9.8071568244383796E-9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>8.5192588059809803E-4</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.7159140738055002E-3</v>
+      </c>
+      <c r="M2" s="5">
+        <v>8.7513416210492201E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.0832539615002799E-6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2.04314415431706E-4</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.9073189802024798E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.30458020793731E-5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.98314062894552801</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5.5910470055537797E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.75018754656984E-3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.8166380572596699E-7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.18639194119125E-7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2.7982369853876898E-3</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5.8857269988176798E-4</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5.2640624023159398E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.7540020592049E-6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.01601659845196E-4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.3093229011331699E-4</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.20143933470182E-5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.3839862048788997E-3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>7.8203423737744793E-3</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.58938365015204797</v>
+      </c>
+      <c r="I4" s="5">
+        <v>3.1498182338609403E-5</v>
+      </c>
+      <c r="J4" s="5">
+        <v>5.5349479505051703E-6</v>
+      </c>
+      <c r="K4" s="5">
+        <v>9.3427973164753497E-4</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.39646998019004298</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2.3425871951982199E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5">
+        <v>8.6122101134187206E-6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4.7435775862189701E-2</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.5678548604486105E-4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.5833602664126999E-5</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3.64477181474243E-3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.33450385844685E-4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4.1152191915836099E-3</v>
+      </c>
+      <c r="I5" s="5">
+        <v>5.8494334669959699E-8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>2.44332051910042E-6</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.94225606405986995</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.71262561457262E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>8.3599575197917905E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.2466211056386404E-5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.31096602018769198</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.6089201969455006E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2.7016805331360602E-4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7.8693733228398706E-5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.0932924836339802E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.21730747480447701</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.1830214733801401E-5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2.8585594507408302E-4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.9793293201406699E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.34976613554920699</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3.2555676467210201E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3.9738952830600899E-7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.36626832196259501</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.56564837882566199</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.1039403857900899E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.7757538238912501E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2.1986027013581998E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.21787124395841E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.3010115807898701E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4.3338117041888098E-4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.0761368540951401E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.3505111945395299E-2</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.82501923403487E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.8984334872148799E-6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.25433225000418902</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.320961462990145</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.3132332110979201E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2.2341348469672299E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.1736914130310199E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.165831415583853</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.61850842501355E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7.4768589676604596E-4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2.3803541940056699E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.22168607840315099</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2.1719286598290501E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8.9828594665974497E-5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.9221062079487603E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.5604901880858599E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.20911008957365E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.12502901863637E-5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.7899895924313101E-6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5.1657609966708202E-5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.97250739040651901</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.5940116446352097E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3.7889640226666301E-5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1.5110468530648E-7</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2.11768303012396E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.5890754682976903E-3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.52563248422538E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>9.5345385958744699E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.56856614107946601</v>
+      </c>
+      <c r="F10" s="3">
+        <v>7.6167906014826698E-5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>6.0070844573884E-5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2.0452422785683399E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.7520103699472399E-2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4.97727959704546E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.74320011021871E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2.4262032829810102E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.32897901602102098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.15011009467890901</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.39354877984021E-6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.5559654096277896E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.17654732549746999</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5.3082516236593101E-6</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.6787852905407594E-9</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5.2892139898011999E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.77533339980359E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.22753723452781499</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5.1792598425537397E-6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.9653883172400699E-5</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.435374611724272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.23208692165141301</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.5584129557922401E-4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3.06273309427957E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.21808873714817001</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3.5074893463748599E-6</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.3659220753064199E-6</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1.5678081041819399E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2.9262661618890701E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.37177151410488901</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.0854609975690901E-6</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.33727057881441E-7</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.17188021586325999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.612026299216752</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.9836035683111903E-6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.91628134194971E-4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.2850383399056502E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4.4649142843824497E-6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>3.9308277244663802E-8</v>
+      </c>
+      <c r="H13" s="3">
+        <v>7.7727567486407702E-5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3.0747920586971102E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.34868402450529801</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3.03404324651525E-9</v>
+      </c>
+      <c r="L13" s="3">
+        <v>9.9439526044195001E-5</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1.5751527585123399E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3">
+        <f>SUM(B6:B13)</f>
+        <v>0.9999869816441096</v>
+      </c>
+      <c r="C14" s="3">
+        <f>SUM(C6:C13)</f>
+        <v>0.94758434606545205</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:M14" si="0">SUM(D6:D13)</f>
+        <v>0.9946043992073248</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99994903886393782</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>4.189281255542486E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="0"/>
+        <v>5.5308603413273564E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39756080050487541</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.9999679230940911</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99999189328517912</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>5.3159493342495673E-2</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.59751290742169416</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.99996207497396239</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1309E96-DE64-F644-9E43-1773DF5387B7}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0.9999869816441096</v>
+      </c>
+      <c r="B1">
+        <v>0.94758434606545205</v>
+      </c>
+      <c r="C1">
+        <v>0.9946043992073248</v>
+      </c>
+      <c r="D1">
+        <v>0.99994903886393782</v>
+      </c>
+      <c r="E1">
+        <v>4.189281255542486E-3</v>
+      </c>
+      <c r="F1">
+        <v>5.5308603413273564E-3</v>
+      </c>
+      <c r="G1">
+        <v>0.39756080050487541</v>
+      </c>
+      <c r="H1">
+        <v>0.9999679230940911</v>
+      </c>
+      <c r="I1">
+        <v>0.99999189328517912</v>
+      </c>
+      <c r="J1">
+        <v>5.3159493342495673E-2</v>
+      </c>
+      <c r="K1">
+        <v>0.59751290742169416</v>
+      </c>
+      <c r="L1">
+        <v>0.99996207497396239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>